--- a/console/Elastic-Compute/Virtual-Machine/components/radio/azRadio.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/components/radio/azRadio.xlsx
@@ -22,15 +22,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>‘This availability zone is sold out.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>change_az</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The selected availability zone resources have been sold out, please switch the availability zone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -55,6 +47,14 @@
       </rPr>
       <t>所选可用区资源已售罄，请切换可用区</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The resources in current AZ have been sold out.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The resources in selected AZ have been sold out,  please switch the AZ.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +420,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -436,21 +436,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
